--- a/Домашнее задание 6.xlsx
+++ b/Домашнее задание 6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Курсы тестировщика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Курсы тестировщика\Папка проекта\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1251C855-2674-42A9-B5CC-A26267AB5A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BD42F-B909-49E8-9442-355BC3D14FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="21600" windowHeight="11385" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>passed</t>
   </si>
@@ -1158,6 +1158,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1172,21 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,10 +1585,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1677,7 +1677,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1804,43 +1804,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="49"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="48"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="48"/>
+      <c r="R6" s="41"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="48"/>
+      <c r="T6" s="41"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1850,29 +1850,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="50"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="48"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="48"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="48"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="48"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="48"/>
+      <c r="T7" s="41"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1902,7 +1902,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1938,7 +1940,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1974,7 +1978,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -3638,6 +3644,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3645,12 +3657,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="2">
